--- a/relatorios/repasses_liberados/dentistas/09120532407/2023-08-25_relatorio_repasses_09120532407.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09120532407/2023-08-25_relatorio_repasses_09120532407.xlsx
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:15">

--- a/relatorios/repasses_liberados/dentistas/09120532407/2023-08-25_relatorio_repasses_09120532407.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09120532407/2023-08-25_relatorio_repasses_09120532407.xlsx
@@ -544,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N4">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
